--- a/docs/timer/定时器整理 (EQ租客组).xlsx
+++ b/docs/timer/定时器整理 (EQ租客组).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonight\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
   <si>
     <t>定时器大类</t>
   </si>
@@ -328,50 +333,105 @@
     <t>com.mogoroom.tasktracker.task.HandleDepositForRefuseBookOrderTask</t>
   </si>
   <si>
+    <t>每日09:00:00执行</t>
+  </si>
+  <si>
+    <t>CmsQuartz</t>
+  </si>
+  <si>
+    <t>syncPageviewFromCacheToDB</t>
+  </si>
+  <si>
+    <t>社区文章浏览量数据由缓存同步到数据库</t>
+  </si>
+  <si>
+    <t>纪林强</t>
+  </si>
+  <si>
+    <t>官网每篇文章的浏览量是存储在缓存中，需每天定时将数据落地。</t>
+  </si>
+  <si>
+    <t>SyncWebPagePVTask</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SyncWebPagePVTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SyncWebPagePVTask"}</t>
+  </si>
+  <si>
+    <t>每日半夜执行一次</t>
+  </si>
+  <si>
+    <t>用来处理定金回掉失败的问题</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>王起东</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>王起东</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是预定金支付成功，但预定单状态为定金已付待处理.如果是首期款支付成功，但签约单状态为首期款已付待处理.当出现如上两种情况时，此方法可以修复订单状态。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecoverFromCallbackFailTask</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RecoverFromCallbackFailTask</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.HandleDepositForRefuseBookOrderTask"}</t>
-  </si>
-  <si>
-    <t>每日09:00:00执行</t>
-  </si>
-  <si>
-    <t>CmsQuartz</t>
-  </si>
-  <si>
-    <t>syncPageviewFromCacheToDB</t>
-  </si>
-  <si>
-    <t>社区文章浏览量数据由缓存同步到数据库</t>
-  </si>
-  <si>
-    <t>纪林强</t>
-  </si>
-  <si>
-    <t>官网每篇文章的浏览量是存储在缓存中，需每天定时将数据落地。</t>
-  </si>
-  <si>
-    <t>SyncWebPagePVTask</t>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.SyncWebPagePVTask</t>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SyncWebPagePVTask"}</t>
-  </si>
-  <si>
-    <t>每日半夜执行一次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时周期任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时周期任务</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RecoverFromCallbackFailTask"}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5分钟执行一次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每3分钟执行一次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,157 +482,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -591,8 +500,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,194 +520,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -889,258 +618,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,9 +644,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1169,18 +653,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,59 +714,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1549,15 +1001,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:P10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1569,7 +1020,7 @@
     <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="43.625" customWidth="1"/>
+    <col min="11" max="11" width="51.875" customWidth="1"/>
     <col min="12" max="12" width="53.375" customWidth="1"/>
     <col min="13" max="13" width="89.125" customWidth="1"/>
     <col min="14" max="14" width="84.625" customWidth="1"/>
@@ -1577,7 +1028,7 @@
     <col min="16" max="16" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:16">
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1608,434 +1059,478 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:16">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" ht="23.25" customHeight="1" spans="1:16">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="31"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:16">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" ht="27" customHeight="1" spans="1:16">
-      <c r="A5" s="10"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="31"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="18" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:16">
-      <c r="A6" s="10"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="31"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="18" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" ht="27" customHeight="1" spans="1:16">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="22" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" ht="27" customHeight="1" spans="1:16">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="24" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="25" t="s">
-        <v>36</v>
+      <c r="P8" s="22" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="9" ht="45" customHeight="1" spans="1:16">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
+    <row r="9" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="31"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="31"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="32"/>
+      <c r="B11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="26" t="s">
+      <c r="H11" s="13"/>
+      <c r="I11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="20" t="s">
+      <c r="K11" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="36" customHeight="1" spans="1:16">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="N10" s="8" t="s">
+      <c r="P11" s="29" t="s">
         <v>86</v>
-      </c>
-      <c r="O10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:B9"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/timer/定时器整理 (EQ租客组).xlsx
+++ b/docs/timer/定时器整理 (EQ租客组).xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tonight\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$12</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>定时器大类</t>
   </si>
@@ -333,9 +328,76 @@
     <t>com.mogoroom.tasktracker.task.HandleDepositForRefuseBookOrderTask</t>
   </si>
   <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.HandleDepositForRefuseBookOrderTask"}</t>
+  </si>
+  <si>
     <t>每日09:00:00执行</t>
   </si>
   <si>
+    <t>RecoverFromCallbackFailTask</t>
+  </si>
+  <si>
+    <t>处理支付回掉失败</t>
+  </si>
+  <si>
+    <t>周云</t>
+  </si>
+  <si>
+    <t>如果是预定金支付成功，但预定单状态为定金已付待处理.如果是首期款支付成功，但签约单状态为首期款已付待处理.当出现如上两种情况时，在确认实际扣款成功，并且账务准确的前提下，修复订单/账单状态。</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.RecoverFromCallbackFailTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RecoverFromCallbackFailTask"}</t>
+  </si>
+  <si>
+    <t>每3分钟执行一次</t>
+  </si>
+  <si>
+    <t>HandleReserveWillOverdueTask</t>
+  </si>
+  <si>
+    <t>提醒租客及时签约</t>
+  </si>
+  <si>
+    <t>预定成功待签约后，仅在距离签约截止时间还剩12个小时到13个小时的这个时间段内，向租客App推送一次消息，提醒租客及时签约</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.HandleReserveWillOverdueTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.HandleReserveWillOverdueTask"}</t>
+  </si>
+  <si>
+    <t>每1小时执行一次
+(如：9:10,10:10,11:10)</t>
+  </si>
+  <si>
+    <t>SendSaleBillMessageTask</t>
+  </si>
+  <si>
+    <t>提醒租客支付账单</t>
+  </si>
+  <si>
+    <t>彭晓春</t>
+  </si>
+  <si>
+    <t>每天定时给当天即将逾期或三天后逾期的租客推送短信，提醒及时支付账单</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SendSaleBillMessageTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SendSaleBillMessageTask"}</t>
+  </si>
+  <si>
+    <t>用来处理定金回掉失败的问题</t>
+  </si>
+  <si>
+    <t>如果是预定金支付成功，但预定单状态为定金已付待处理.如果是首期款支付成功，但签约单状态为首期款已付待处理.当出现如上两种情况时，此方法可以修复订单状态。</t>
+  </si>
+  <si>
     <t>CmsQuartz</t>
   </si>
   <si>
@@ -361,77 +423,19 @@
   </si>
   <si>
     <t>每日半夜执行一次</t>
-  </si>
-  <si>
-    <t>用来处理定金回掉失败的问题</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>王起东</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>王起东</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>史欣欣</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>史欣欣</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果是预定金支付成功，但预定单状态为定金已付待处理.如果是首期款支付成功，但签约单状态为首期款已付待处理.当出现如上两种情况时，此方法可以修复订单状态。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecoverFromCallbackFailTask</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.RecoverFromCallbackFailTask</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.HandleDepositForRefuseBookOrderTask"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时周期任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时周期任务</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.RecoverFromCallbackFailTask"}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每5分钟执行一次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每3分钟执行一次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,7 +444,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -479,14 +504,157 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -494,20 +662,8 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,49 +676,198 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -583,47 +888,252 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -631,116 +1141,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1001,536 +1550,669 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="36.125" customWidth="1"/>
     <col min="4" max="4" width="54.5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
+    <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="3" customWidth="1"/>
     <col min="11" max="11" width="51.875" customWidth="1"/>
     <col min="12" max="12" width="53.375" customWidth="1"/>
     <col min="13" max="13" width="89.125" customWidth="1"/>
     <col min="14" max="14" width="84.625" customWidth="1"/>
     <col min="15" max="15" width="17.25" customWidth="1"/>
-    <col min="16" max="16" width="24.875" customWidth="1"/>
+    <col min="16" max="16" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="20" customHeight="1" spans="1:16">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+    <row r="2" ht="30" customHeight="1" spans="1:16">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="7" t="s">
+    <row r="3" ht="23.25" customHeight="1" spans="1:16">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="7" t="s">
+    <row r="4" ht="22.5" customHeight="1" spans="1:16">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="7" t="s">
+    <row r="5" ht="27" customHeight="1" spans="1:16">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="15" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="31"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="7" t="s">
+    <row r="6" ht="27" customHeight="1" spans="1:16">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="15" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="7" t="s">
+    <row r="7" ht="27" customHeight="1" spans="1:16">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="19" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="31"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="7" t="s">
+    <row r="8" ht="27" customHeight="1" spans="1:16">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="21" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="22" t="s">
-        <v>101</v>
+      <c r="P8" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="7" t="s">
+    <row r="9" s="1" customFormat="1" ht="45" customHeight="1" spans="1:16">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="23" t="s">
+      <c r="G9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="P9" s="25" t="s">
+      <c r="N9" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="O9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="31"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="10" t="s">
+    <row r="10" ht="27" customHeight="1" spans="1:16">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:16">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="P10" s="25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
-      <c r="B11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" ht="45" customHeight="1" spans="1:16">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" ht="45" customHeight="1" spans="1:16">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="L11" s="28" t="s">
+      <c r="K13" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="N13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="O13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="O11" s="17" t="s">
+    </row>
+    <row r="14" s="2" customFormat="1" ht="36" customHeight="1" spans="1:16">
+      <c r="A14" s="5"/>
+      <c r="B14" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="29" t="s">
-        <v>86</v>
+      <c r="P14" s="33" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="B2:B12"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/timer/定时器整理 (EQ租客组).xlsx
+++ b/docs/timer/定时器整理 (EQ租客组).xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$15</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>定时器大类</t>
   </si>
@@ -392,6 +392,60 @@
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.SendSaleBillMessageTask"}</t>
   </si>
   <si>
+    <t>CalculateVScoreTask</t>
+  </si>
+  <si>
+    <t>计算房东V分</t>
+  </si>
+  <si>
+    <t>金刚</t>
+  </si>
+  <si>
+    <t>未上线</t>
+  </si>
+  <si>
+    <t>根据职业房东评分体系，依据房源录入量，在线签约量等数据计算并更新房东V分</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.CalculateVScoreTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CalculateVScoreTask"}</t>
+  </si>
+  <si>
+    <t>每日05:00:00执行</t>
+  </si>
+  <si>
+    <t>CollectUserBehaviorRecordTask</t>
+  </si>
+  <si>
+    <t>收集用户行为记录</t>
+  </si>
+  <si>
+    <t>收集用户浏览记录，拨打记录，收藏记录等行为记录，整合到一张表里便于数据分析</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.CollectUserBehaviorRecordTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CollectUserBehaviorRecordTask"}</t>
+  </si>
+  <si>
+    <t>AnalysisUserBehaviorRecordTask</t>
+  </si>
+  <si>
+    <t>分析用户行为记录</t>
+  </si>
+  <si>
+    <t>根据用户行为数据，分析用户兴趣点，保存用户兴趣点，用于个性化房源推荐</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.AnalysisUserBehaviorRecordTask</t>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.AnalysisUserBehaviorRecordTask"}</t>
+  </si>
+  <si>
     <t>用来处理定金回掉失败的问题</t>
   </si>
   <si>
@@ -430,12 +484,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,27 +522,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -500,11 +533,64 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -514,8 +600,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,27 +647,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,89 +670,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -678,180 +704,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -863,7 +889,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -876,6 +902,21 @@
         <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -905,16 +946,42 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -935,36 +1002,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -974,13 +1011,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,155 +1030,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1160,22 +1201,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1184,13 +1231,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1202,39 +1249,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1552,10 +1596,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1575,7 +1619,7 @@
     <col min="13" max="13" width="89.125" customWidth="1"/>
     <col min="14" max="14" width="84.625" customWidth="1"/>
     <col min="15" max="15" width="17.25" customWidth="1"/>
-    <col min="16" max="16" width="36.25" customWidth="1"/>
+    <col min="16" max="16" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:16">
@@ -1609,22 +1653,22 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1651,13 +1695,13 @@
         <v>21</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="21" t="s">
         <v>24</v>
       </c>
       <c r="L2" s="6" t="s">
@@ -1669,10 +1713,10 @@
       <c r="N2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="23" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1695,13 +1739,13 @@
         <v>21</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="21" t="s">
         <v>32</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -1713,10 +1757,10 @@
       <c r="N3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="23" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1739,28 +1783,28 @@
         <v>21</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="24" t="s">
         <v>39</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="21" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1783,13 +1827,13 @@
         <v>21</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="21" t="s">
         <v>47</v>
       </c>
       <c r="L5" s="6" t="s">
@@ -1801,10 +1845,10 @@
       <c r="N5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="23" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1827,13 +1871,13 @@
         <v>21</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="20" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="21" t="s">
         <v>54</v>
       </c>
       <c r="L6" s="6" t="s">
@@ -1845,10 +1889,10 @@
       <c r="N6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="23" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1871,13 +1915,13 @@
         <v>21</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="21" t="s">
         <v>61</v>
       </c>
       <c r="L7" s="6" t="s">
@@ -1889,10 +1933,10 @@
       <c r="N7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="23" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1915,13 +1959,13 @@
         <v>21</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="20" t="s">
         <v>67</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="21" t="s">
         <v>68</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -1933,283 +1977,426 @@
       <c r="N8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="O8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="P8" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="45" customHeight="1" spans="1:16">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" customFormat="1" ht="45" customHeight="1" spans="1:16">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:16">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="O10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="28" t="s">
+      <c r="P10" s="23" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:16">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="O11" s="10" t="s">
+      <c r="O11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="23" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" ht="45" customHeight="1" spans="1:16">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10" t="s">
+    <row r="12" s="1" customFormat="1" ht="45" customHeight="1" spans="1:16">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K12" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="O12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="28" t="s">
+      <c r="P12" s="23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" ht="45" customHeight="1" spans="1:16">
+    <row r="13" ht="27" customHeight="1" spans="1:19">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="34"/>
+    </row>
+    <row r="14" ht="27" customHeight="1" spans="1:19">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="34"/>
+    </row>
+    <row r="15" ht="45" customHeight="1" spans="1:19">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="34"/>
+    </row>
+    <row r="16" ht="45" customHeight="1" spans="1:18">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="18" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="6" t="s">
+      <c r="K16" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="P16" s="23" t="s">
         <v>85</v>
       </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="36" customHeight="1" spans="1:16">
-      <c r="A14" s="5"/>
-      <c r="B14" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="5" t="s">
+    <row r="17" s="2" customFormat="1" ht="36" customHeight="1" spans="1:16">
+      <c r="A17" s="5"/>
+      <c r="B17" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="30" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O14" s="20" t="s">
+      <c r="K17" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="33" t="s">
-        <v>108</v>
+      <c r="P17" s="23" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B15"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
